--- a/data/pca/factorExposure/factorExposure_2012-02-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01472156425778673</v>
+        <v>0.0149616798533144</v>
       </c>
       <c r="C2">
-        <v>0.02990995756918252</v>
+        <v>0.02544393935438461</v>
       </c>
       <c r="D2">
-        <v>0.005787409692704238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.006253673712000681</v>
+      </c>
+      <c r="E2">
+        <v>0.0119027046160717</v>
+      </c>
+      <c r="F2">
+        <v>0.01306261139088888</v>
+      </c>
+      <c r="G2">
+        <v>0.01657087114170829</v>
+      </c>
+      <c r="H2">
+        <v>0.04642836236798197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07224140884472406</v>
+        <v>0.08709051878919313</v>
       </c>
       <c r="C4">
-        <v>0.05026713630273748</v>
+        <v>0.03713892134281686</v>
       </c>
       <c r="D4">
-        <v>0.08236413922329341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06542165721041943</v>
+      </c>
+      <c r="E4">
+        <v>0.01407274364241648</v>
+      </c>
+      <c r="F4">
+        <v>0.03096410074249713</v>
+      </c>
+      <c r="G4">
+        <v>0.004303869344911048</v>
+      </c>
+      <c r="H4">
+        <v>-0.03767418094685528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1083177499252065</v>
+        <v>0.1193619720856424</v>
       </c>
       <c r="C6">
-        <v>0.05521097365442707</v>
+        <v>0.03473132203635271</v>
       </c>
       <c r="D6">
-        <v>-0.001795525188199624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01409632063609287</v>
+      </c>
+      <c r="E6">
+        <v>-0.01285022321864171</v>
+      </c>
+      <c r="F6">
+        <v>0.05375062370225628</v>
+      </c>
+      <c r="G6">
+        <v>0.03419876431094423</v>
+      </c>
+      <c r="H6">
+        <v>0.1179721022168101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04965134241330869</v>
+        <v>0.06367545287465255</v>
       </c>
       <c r="C7">
-        <v>0.02778825530247592</v>
+        <v>0.01988371645711564</v>
       </c>
       <c r="D7">
-        <v>0.0473538363848835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04602432407636479</v>
+      </c>
+      <c r="E7">
+        <v>0.03530929451762729</v>
+      </c>
+      <c r="F7">
+        <v>0.03506493105645442</v>
+      </c>
+      <c r="G7">
+        <v>-0.03710541369717747</v>
+      </c>
+      <c r="H7">
+        <v>-0.00416246009815929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03825508528277384</v>
+        <v>0.04120424309744904</v>
       </c>
       <c r="C8">
-        <v>0.01410643496855954</v>
+        <v>0.009560325264604964</v>
       </c>
       <c r="D8">
-        <v>0.05843354754725143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02500351361664997</v>
+      </c>
+      <c r="E8">
+        <v>0.03278798001463713</v>
+      </c>
+      <c r="F8">
+        <v>0.05074910291285314</v>
+      </c>
+      <c r="G8">
+        <v>0.05577828086413052</v>
+      </c>
+      <c r="H8">
+        <v>0.01223713287643966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06659101243380754</v>
+        <v>0.07850252663556002</v>
       </c>
       <c r="C9">
-        <v>0.04151357580156511</v>
+        <v>0.02837016468714183</v>
       </c>
       <c r="D9">
-        <v>0.07190203648199384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06394887309925158</v>
+      </c>
+      <c r="E9">
+        <v>0.03890988914502796</v>
+      </c>
+      <c r="F9">
+        <v>0.0297862452860399</v>
+      </c>
+      <c r="G9">
+        <v>0.007155169636902642</v>
+      </c>
+      <c r="H9">
+        <v>-0.04170075764087364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02789713989505961</v>
+        <v>0.03328933738804766</v>
       </c>
       <c r="C10">
-        <v>0.03313111808633925</v>
+        <v>0.04419232998030336</v>
       </c>
       <c r="D10">
-        <v>-0.1781568552866799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1733920428547066</v>
+      </c>
+      <c r="E10">
+        <v>0.04381267674659911</v>
+      </c>
+      <c r="F10">
+        <v>0.04618188375354797</v>
+      </c>
+      <c r="G10">
+        <v>-0.02853385839416836</v>
+      </c>
+      <c r="H10">
+        <v>0.04667907556037213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07136509959773848</v>
+        <v>0.0766390791239151</v>
       </c>
       <c r="C11">
-        <v>0.04625269479488101</v>
+        <v>0.02740952282389363</v>
       </c>
       <c r="D11">
-        <v>0.05880960731003389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06276039737996832</v>
+      </c>
+      <c r="E11">
+        <v>-0.001558395628007397</v>
+      </c>
+      <c r="F11">
+        <v>0.02834737301630187</v>
+      </c>
+      <c r="G11">
+        <v>-0.003147149492448024</v>
+      </c>
+      <c r="H11">
+        <v>-0.08052486777757786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05842104178401267</v>
+        <v>0.06761506487884707</v>
       </c>
       <c r="C12">
-        <v>0.0524426070230291</v>
+        <v>0.03753826407926697</v>
       </c>
       <c r="D12">
-        <v>0.04266672361896438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04796625768067681</v>
+      </c>
+      <c r="E12">
+        <v>0.01283563108440249</v>
+      </c>
+      <c r="F12">
+        <v>0.02050566923142548</v>
+      </c>
+      <c r="G12">
+        <v>0.002614502919761184</v>
+      </c>
+      <c r="H12">
+        <v>-0.03926809642719901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06048517349691807</v>
+        <v>0.06531099607690144</v>
       </c>
       <c r="C13">
-        <v>0.0401284989941283</v>
+        <v>0.02545817366977998</v>
       </c>
       <c r="D13">
-        <v>0.05940490312763033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04289199564116614</v>
+      </c>
+      <c r="E13">
+        <v>0.01584890301301692</v>
+      </c>
+      <c r="F13">
+        <v>0.007135088363792557</v>
+      </c>
+      <c r="G13">
+        <v>-0.008913942034284125</v>
+      </c>
+      <c r="H13">
+        <v>-0.03754163724799185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03296354144107478</v>
+        <v>0.04107610928832452</v>
       </c>
       <c r="C14">
-        <v>0.03090140754909874</v>
+        <v>0.02724726929249375</v>
       </c>
       <c r="D14">
-        <v>0.0004655304882275766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.007242952785891823</v>
+      </c>
+      <c r="E14">
+        <v>0.03273653063856348</v>
+      </c>
+      <c r="F14">
+        <v>0.01138747105529891</v>
+      </c>
+      <c r="G14">
+        <v>0.004483482316691499</v>
+      </c>
+      <c r="H14">
+        <v>-0.05721775657779565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04033341810351446</v>
+        <v>0.04036143653860456</v>
       </c>
       <c r="C15">
-        <v>0.01061011300944195</v>
+        <v>0.003589830172213209</v>
       </c>
       <c r="D15">
-        <v>0.01759370957068265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003964368073607583</v>
+      </c>
+      <c r="E15">
+        <v>0.04078476847766423</v>
+      </c>
+      <c r="F15">
+        <v>-0.007007302643239554</v>
+      </c>
+      <c r="G15">
+        <v>0.02436217939622334</v>
+      </c>
+      <c r="H15">
+        <v>-0.03712415957935753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06058688332173109</v>
+        <v>0.07057851702693789</v>
       </c>
       <c r="C16">
-        <v>0.04207020868860083</v>
+        <v>0.02788357663917856</v>
       </c>
       <c r="D16">
-        <v>0.04648927489342276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06227751416486443</v>
+      </c>
+      <c r="E16">
+        <v>0.006936074537540274</v>
+      </c>
+      <c r="F16">
+        <v>0.02519219251471331</v>
+      </c>
+      <c r="G16">
+        <v>-0.004777646517713738</v>
+      </c>
+      <c r="H16">
+        <v>-0.04963675734204936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0629971525362765</v>
+        <v>0.06415719667305742</v>
       </c>
       <c r="C20">
-        <v>0.02994402642617333</v>
+        <v>0.01354952800074105</v>
       </c>
       <c r="D20">
-        <v>0.04884450907727156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03778394554277939</v>
+      </c>
+      <c r="E20">
+        <v>0.03085330931927452</v>
+      </c>
+      <c r="F20">
+        <v>0.01999532410358858</v>
+      </c>
+      <c r="G20">
+        <v>0.01260517172344411</v>
+      </c>
+      <c r="H20">
+        <v>-0.03844518561985484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02616513707173096</v>
+        <v>0.02602225701620188</v>
       </c>
       <c r="C21">
-        <v>-0.002222086091837108</v>
+        <v>-0.009482618548821114</v>
       </c>
       <c r="D21">
-        <v>0.02506564785718191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0263824966619479</v>
+      </c>
+      <c r="E21">
+        <v>0.03818669923560149</v>
+      </c>
+      <c r="F21">
+        <v>-0.01365095715443961</v>
+      </c>
+      <c r="G21">
+        <v>0.007222131351289345</v>
+      </c>
+      <c r="H21">
+        <v>0.04473279897970861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07907148494088108</v>
+        <v>0.07298495213758881</v>
       </c>
       <c r="C22">
-        <v>0.06143739660537306</v>
+        <v>0.04078420485247389</v>
       </c>
       <c r="D22">
-        <v>0.1046938314627841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0687496790239079</v>
+      </c>
+      <c r="E22">
+        <v>0.5693352448305897</v>
+      </c>
+      <c r="F22">
+        <v>-0.2358729492200529</v>
+      </c>
+      <c r="G22">
+        <v>-0.07605634258263713</v>
+      </c>
+      <c r="H22">
+        <v>0.1468152519829315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08004550431250451</v>
+        <v>0.07362917339567539</v>
       </c>
       <c r="C23">
-        <v>0.06032924546334213</v>
+        <v>0.03944939212947326</v>
       </c>
       <c r="D23">
-        <v>0.1062689507859634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06960357009252355</v>
+      </c>
+      <c r="E23">
+        <v>0.5685890970574415</v>
+      </c>
+      <c r="F23">
+        <v>-0.2345008524822188</v>
+      </c>
+      <c r="G23">
+        <v>-0.07465283100214862</v>
+      </c>
+      <c r="H23">
+        <v>0.1418670827449584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0716623329359819</v>
+        <v>0.0800289906569433</v>
       </c>
       <c r="C24">
-        <v>0.05103884111144233</v>
+        <v>0.03398719608452135</v>
       </c>
       <c r="D24">
-        <v>0.05960542498196688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05973152228895067</v>
+      </c>
+      <c r="E24">
+        <v>0.01590795182545204</v>
+      </c>
+      <c r="F24">
+        <v>0.03447303781176989</v>
+      </c>
+      <c r="G24">
+        <v>0.01265710411188276</v>
+      </c>
+      <c r="H24">
+        <v>-0.05017437115404042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07069228572376668</v>
+        <v>0.07789446404921102</v>
       </c>
       <c r="C25">
-        <v>0.0562373737368629</v>
+        <v>0.03816850850318373</v>
       </c>
       <c r="D25">
-        <v>0.06509298243211523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05310980719538362</v>
+      </c>
+      <c r="E25">
+        <v>0.0201487531690351</v>
+      </c>
+      <c r="F25">
+        <v>0.0240608890016902</v>
+      </c>
+      <c r="G25">
+        <v>0.01890165501598163</v>
+      </c>
+      <c r="H25">
+        <v>-0.05284445903488593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04539348456562664</v>
+        <v>0.04770228757176279</v>
       </c>
       <c r="C26">
-        <v>0.01026290918949373</v>
+        <v>0.002647773516384296</v>
       </c>
       <c r="D26">
-        <v>0.01289746617971983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01704898027650171</v>
+      </c>
+      <c r="E26">
+        <v>0.05516696796042676</v>
+      </c>
+      <c r="F26">
+        <v>0.02139976418465332</v>
+      </c>
+      <c r="G26">
+        <v>-0.009735410321636802</v>
+      </c>
+      <c r="H26">
+        <v>-0.05292553676831881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05203492015430599</v>
+        <v>0.06165703620458974</v>
       </c>
       <c r="C28">
-        <v>0.07487916922576657</v>
+        <v>0.08731121232209146</v>
       </c>
       <c r="D28">
-        <v>-0.3144973165458091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3091346275470455</v>
+      </c>
+      <c r="E28">
+        <v>0.02732931656383077</v>
+      </c>
+      <c r="F28">
+        <v>0.05334808904035437</v>
+      </c>
+      <c r="G28">
+        <v>0.03364070599820702</v>
+      </c>
+      <c r="H28">
+        <v>0.04070719941073567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04068224874819877</v>
+        <v>0.04878640376349175</v>
       </c>
       <c r="C29">
-        <v>0.03045518585592156</v>
+        <v>0.02588737760234258</v>
       </c>
       <c r="D29">
-        <v>0.003797220829014391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005673007573379438</v>
+      </c>
+      <c r="E29">
+        <v>0.05586565498627982</v>
+      </c>
+      <c r="F29">
+        <v>0.002926923811982626</v>
+      </c>
+      <c r="G29">
+        <v>-0.01029551701876011</v>
+      </c>
+      <c r="H29">
+        <v>-0.07763937802218912</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1253359283828171</v>
+        <v>0.1312780941707806</v>
       </c>
       <c r="C30">
-        <v>0.0910483278158115</v>
+        <v>0.06338147672101388</v>
       </c>
       <c r="D30">
-        <v>0.1176678755064712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06908970279764248</v>
+      </c>
+      <c r="E30">
+        <v>0.08434300535879613</v>
+      </c>
+      <c r="F30">
+        <v>-0.02613065437277013</v>
+      </c>
+      <c r="G30">
+        <v>0.0823667161094018</v>
+      </c>
+      <c r="H30">
+        <v>0.0526834112403541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04298517007904686</v>
+        <v>0.04905905316432523</v>
       </c>
       <c r="C31">
-        <v>0.02270188584048803</v>
+        <v>0.01434537305676061</v>
       </c>
       <c r="D31">
-        <v>0.0243628754397053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02621926135935994</v>
+      </c>
+      <c r="E31">
+        <v>0.02560814231245731</v>
+      </c>
+      <c r="F31">
+        <v>0.01034237545270763</v>
+      </c>
+      <c r="G31">
+        <v>-0.02821377534100801</v>
+      </c>
+      <c r="H31">
+        <v>-0.06203096707308961</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03829242240004919</v>
+        <v>0.03924948654488943</v>
       </c>
       <c r="C32">
-        <v>0.02468171025515218</v>
+        <v>0.01731461296929273</v>
       </c>
       <c r="D32">
-        <v>0.02319252190026204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01251312706796208</v>
+      </c>
+      <c r="E32">
+        <v>0.06828132226352171</v>
+      </c>
+      <c r="F32">
+        <v>-0.01914667305495116</v>
+      </c>
+      <c r="G32">
+        <v>0.01895570538434803</v>
+      </c>
+      <c r="H32">
+        <v>-0.07797836503659922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08206469784684534</v>
+        <v>0.09591052736956074</v>
       </c>
       <c r="C33">
-        <v>0.04404194057442793</v>
+        <v>0.02785773721234498</v>
       </c>
       <c r="D33">
-        <v>0.06302484959920485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04783183438003291</v>
+      </c>
+      <c r="E33">
+        <v>0.01437169130422242</v>
+      </c>
+      <c r="F33">
+        <v>0.004589401676823856</v>
+      </c>
+      <c r="G33">
+        <v>-0.0059315175058032</v>
+      </c>
+      <c r="H33">
+        <v>-0.0515433828219037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05631405862718131</v>
+        <v>0.06277159828137316</v>
       </c>
       <c r="C34">
-        <v>0.02790065300817408</v>
+        <v>0.01390698458011443</v>
       </c>
       <c r="D34">
-        <v>0.05515469059955992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05333876957270417</v>
+      </c>
+      <c r="E34">
+        <v>0.008554760316798837</v>
+      </c>
+      <c r="F34">
+        <v>0.01739066792139779</v>
+      </c>
+      <c r="G34">
+        <v>-0.001500879559827448</v>
+      </c>
+      <c r="H34">
+        <v>-0.05455517868878899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0375324222971861</v>
+        <v>0.03976463480391299</v>
       </c>
       <c r="C35">
-        <v>0.00810807099967442</v>
+        <v>0.003152516965484146</v>
       </c>
       <c r="D35">
-        <v>0.009292401022322535</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007954117713283852</v>
+      </c>
+      <c r="E35">
+        <v>0.01768533915954328</v>
+      </c>
+      <c r="F35">
+        <v>-0.01563301140457275</v>
+      </c>
+      <c r="G35">
+        <v>-0.01110270197160066</v>
+      </c>
+      <c r="H35">
+        <v>-0.01753913115558692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02187796919357641</v>
+        <v>0.02851304411213639</v>
       </c>
       <c r="C36">
-        <v>0.01730185946746143</v>
+        <v>0.01405912698970362</v>
       </c>
       <c r="D36">
-        <v>0.02161680165022311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01497354508638819</v>
+      </c>
+      <c r="E36">
+        <v>0.03961056754168792</v>
+      </c>
+      <c r="F36">
+        <v>0.01361587756921151</v>
+      </c>
+      <c r="G36">
+        <v>-0.008671878466080651</v>
+      </c>
+      <c r="H36">
+        <v>-0.04208964286093656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04041921079129648</v>
+        <v>0.04469519191725975</v>
       </c>
       <c r="C38">
-        <v>0.005165284848508333</v>
+        <v>-9.63760830285709e-05</v>
       </c>
       <c r="D38">
-        <v>0.01810920672168899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01725501667599087</v>
+      </c>
+      <c r="E38">
+        <v>0.05358723729146597</v>
+      </c>
+      <c r="F38">
+        <v>-0.01291336126485764</v>
+      </c>
+      <c r="G38">
+        <v>0.004067762973523968</v>
+      </c>
+      <c r="H38">
+        <v>-0.02977917206110402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09093679460539965</v>
+        <v>0.1022131603311882</v>
       </c>
       <c r="C39">
-        <v>0.07375547030781701</v>
+        <v>0.05237676590283898</v>
       </c>
       <c r="D39">
-        <v>0.05670313140189966</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05888320094119406</v>
+      </c>
+      <c r="E39">
+        <v>-1.204468672090462e-05</v>
+      </c>
+      <c r="F39">
+        <v>0.001812286351756511</v>
+      </c>
+      <c r="G39">
+        <v>0.03576625051969266</v>
+      </c>
+      <c r="H39">
+        <v>-0.04379147654312688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07500713165211144</v>
+        <v>0.07070385734836583</v>
       </c>
       <c r="C40">
-        <v>0.04027254647177421</v>
+        <v>0.01975355222715858</v>
       </c>
       <c r="D40">
-        <v>-0.001848819760960322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01173459727909247</v>
+      </c>
+      <c r="E40">
+        <v>0.01877618092444847</v>
+      </c>
+      <c r="F40">
+        <v>-0.05781691436833419</v>
+      </c>
+      <c r="G40">
+        <v>0.05614306008516413</v>
+      </c>
+      <c r="H40">
+        <v>0.1098245659824672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0412095267365905</v>
+        <v>0.04399377238790668</v>
       </c>
       <c r="C41">
-        <v>0.005206117492237631</v>
+        <v>-0.002106274326023243</v>
       </c>
       <c r="D41">
-        <v>0.03711186532976065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03414081853696601</v>
+      </c>
+      <c r="E41">
+        <v>0.003549610624318234</v>
+      </c>
+      <c r="F41">
+        <v>-0.01389838904091174</v>
+      </c>
+      <c r="G41">
+        <v>0.009535068660800177</v>
+      </c>
+      <c r="H41">
+        <v>-0.03275275802734388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04827828327625104</v>
+        <v>0.05830754044117401</v>
       </c>
       <c r="C43">
-        <v>0.02552905545772525</v>
+        <v>0.01788214447593051</v>
       </c>
       <c r="D43">
-        <v>0.01926361817240548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02503557968989999</v>
+      </c>
+      <c r="E43">
+        <v>0.02008704172397942</v>
+      </c>
+      <c r="F43">
+        <v>0.01264575536634135</v>
+      </c>
+      <c r="G43">
+        <v>-0.01643232381447012</v>
+      </c>
+      <c r="H43">
+        <v>-0.05311079475648028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09170046271520912</v>
+        <v>0.09556439893851353</v>
       </c>
       <c r="C44">
-        <v>0.09341478340522789</v>
+        <v>0.06759010243755142</v>
       </c>
       <c r="D44">
-        <v>0.07971167745867934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05783642409925833</v>
+      </c>
+      <c r="E44">
+        <v>0.08610790652579237</v>
+      </c>
+      <c r="F44">
+        <v>0.03925345989108638</v>
+      </c>
+      <c r="G44">
+        <v>0.02961775630462005</v>
+      </c>
+      <c r="H44">
+        <v>-0.008697384017801636</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02438559745782707</v>
+        <v>0.03365069289960319</v>
       </c>
       <c r="C46">
-        <v>0.01341517409860758</v>
+        <v>0.01162503059378846</v>
       </c>
       <c r="D46">
-        <v>0.02136743781651465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03145688594231722</v>
+      </c>
+      <c r="E46">
+        <v>0.02976355791765465</v>
+      </c>
+      <c r="F46">
+        <v>0.01358590284884688</v>
+      </c>
+      <c r="G46">
+        <v>-0.005810064641831781</v>
+      </c>
+      <c r="H46">
+        <v>-0.04127240552646312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02893783133547332</v>
+        <v>0.03744783518651906</v>
       </c>
       <c r="C47">
-        <v>0.02466149793119355</v>
+        <v>0.02068802153263951</v>
       </c>
       <c r="D47">
-        <v>0.01190827438458204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01042897549441054</v>
+      </c>
+      <c r="E47">
+        <v>0.05130399653259871</v>
+      </c>
+      <c r="F47">
+        <v>0.008056374261962767</v>
+      </c>
+      <c r="G47">
+        <v>-0.04353031761466018</v>
+      </c>
+      <c r="H47">
+        <v>-0.02371459254749797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03295658679283268</v>
+        <v>0.03766703051844652</v>
       </c>
       <c r="C48">
-        <v>0.01893699939558875</v>
+        <v>0.01167589421455664</v>
       </c>
       <c r="D48">
-        <v>0.02963871883693881</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01894775124772874</v>
+      </c>
+      <c r="E48">
+        <v>0.04363214755299796</v>
+      </c>
+      <c r="F48">
+        <v>-0.0003661490663336663</v>
+      </c>
+      <c r="G48">
+        <v>0.0105009771401029</v>
+      </c>
+      <c r="H48">
+        <v>-0.04017291104562791</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1605126200802636</v>
+        <v>0.1883852790899966</v>
       </c>
       <c r="C49">
-        <v>0.05754287458130797</v>
+        <v>0.03437391200940249</v>
       </c>
       <c r="D49">
-        <v>-0.01202356953604598</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02970653831382981</v>
+      </c>
+      <c r="E49">
+        <v>-0.1447166848992076</v>
+      </c>
+      <c r="F49">
+        <v>0.0784632784099694</v>
+      </c>
+      <c r="G49">
+        <v>-0.04899167008889218</v>
+      </c>
+      <c r="H49">
+        <v>0.2295342086030167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0385267120873256</v>
+        <v>0.04591176543996742</v>
       </c>
       <c r="C50">
-        <v>0.02697812272856896</v>
+        <v>0.01987312390243164</v>
       </c>
       <c r="D50">
-        <v>0.0373687695217232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03071048993166856</v>
+      </c>
+      <c r="E50">
+        <v>0.04932707030884013</v>
+      </c>
+      <c r="F50">
+        <v>0.01061187219986258</v>
+      </c>
+      <c r="G50">
+        <v>-0.02446299909286973</v>
+      </c>
+      <c r="H50">
+        <v>-0.06011205836713249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02647715408780997</v>
+        <v>0.03012448345528949</v>
       </c>
       <c r="C51">
-        <v>0.01087219583610913</v>
+        <v>0.005362682812565625</v>
       </c>
       <c r="D51">
-        <v>0.01306018780373642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01230083026037564</v>
+      </c>
+      <c r="E51">
+        <v>0.01282886285414595</v>
+      </c>
+      <c r="F51">
+        <v>0.01932777766674127</v>
+      </c>
+      <c r="G51">
+        <v>-0.001471726458923035</v>
+      </c>
+      <c r="H51">
+        <v>0.001876102902810489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1514258121179015</v>
+        <v>0.1624235774831961</v>
       </c>
       <c r="C53">
-        <v>0.07800083145090894</v>
+        <v>0.05165654656061321</v>
       </c>
       <c r="D53">
-        <v>0.02282645741919275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01937201670459806</v>
+      </c>
+      <c r="E53">
+        <v>-0.02410621939567942</v>
+      </c>
+      <c r="F53">
+        <v>0.02017042748754534</v>
+      </c>
+      <c r="G53">
+        <v>-0.02747766419288681</v>
+      </c>
+      <c r="H53">
+        <v>-0.1804053269933388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05542479875091549</v>
+        <v>0.05813065200545663</v>
       </c>
       <c r="C54">
-        <v>0.02584792583000235</v>
+        <v>0.01474598753411989</v>
       </c>
       <c r="D54">
-        <v>0.0220793134561152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01660281348559369</v>
+      </c>
+      <c r="E54">
+        <v>0.04962182877804456</v>
+      </c>
+      <c r="F54">
+        <v>0.004573156644355547</v>
+      </c>
+      <c r="G54">
+        <v>0.01070303542885816</v>
+      </c>
+      <c r="H54">
+        <v>-0.04695873383171736</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09894084891555771</v>
+        <v>0.103491461155362</v>
       </c>
       <c r="C55">
-        <v>0.05412937830531654</v>
+        <v>0.03460345466445863</v>
       </c>
       <c r="D55">
-        <v>0.02521157269910093</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02343797567116019</v>
+      </c>
+      <c r="E55">
+        <v>0.01825261278672593</v>
+      </c>
+      <c r="F55">
+        <v>0.01398595723829375</v>
+      </c>
+      <c r="G55">
+        <v>-0.02054262146116226</v>
+      </c>
+      <c r="H55">
+        <v>-0.1518397490206272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1477776033322706</v>
+        <v>0.1614984553523953</v>
       </c>
       <c r="C56">
-        <v>0.09205388968293156</v>
+        <v>0.06458523082050344</v>
       </c>
       <c r="D56">
-        <v>0.02127406564933883</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02001426158904773</v>
+      </c>
+      <c r="E56">
+        <v>-0.02512537924360545</v>
+      </c>
+      <c r="F56">
+        <v>0.03651423668711331</v>
+      </c>
+      <c r="G56">
+        <v>-0.03848667072784916</v>
+      </c>
+      <c r="H56">
+        <v>-0.1789549788517748</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1282028545551054</v>
+        <v>0.09937275405845686</v>
       </c>
       <c r="C58">
-        <v>0.008804162074651062</v>
+        <v>-0.03448952100243222</v>
       </c>
       <c r="D58">
-        <v>0.02579406328855816</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.039113696246302</v>
+      </c>
+      <c r="E58">
+        <v>0.1649053169797597</v>
+      </c>
+      <c r="F58">
+        <v>-0.01813373984428404</v>
+      </c>
+      <c r="G58">
+        <v>-0.01914493929312985</v>
+      </c>
+      <c r="H58">
+        <v>0.2567027520723839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1193425549728674</v>
+        <v>0.1362501148968709</v>
       </c>
       <c r="C59">
-        <v>0.0800421710761586</v>
+        <v>0.08812952407157124</v>
       </c>
       <c r="D59">
-        <v>-0.353199302145107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3630511518564132</v>
+      </c>
+      <c r="E59">
+        <v>0.02605252460075942</v>
+      </c>
+      <c r="F59">
+        <v>0.01830513290965812</v>
+      </c>
+      <c r="G59">
+        <v>-0.02463353364600407</v>
+      </c>
+      <c r="H59">
+        <v>0.00226702349511576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2014093911308755</v>
+        <v>0.2323056559312058</v>
       </c>
       <c r="C60">
-        <v>0.1024334274580556</v>
+        <v>0.06906743949295166</v>
       </c>
       <c r="D60">
-        <v>0.01596249193155398</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04322653649810274</v>
+      </c>
+      <c r="E60">
+        <v>-0.09213098817903631</v>
+      </c>
+      <c r="F60">
+        <v>0.06801194822678884</v>
+      </c>
+      <c r="G60">
+        <v>0.02751487333199855</v>
+      </c>
+      <c r="H60">
+        <v>0.1472217413133219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08019493688746789</v>
+        <v>0.08891578366370588</v>
       </c>
       <c r="C61">
-        <v>0.05238803305784596</v>
+        <v>0.03742000984545903</v>
       </c>
       <c r="D61">
-        <v>0.04209695903719984</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04018017886884365</v>
+      </c>
+      <c r="E61">
+        <v>-0.002587704116359374</v>
+      </c>
+      <c r="F61">
+        <v>0.003170266945266407</v>
+      </c>
+      <c r="G61">
+        <v>-0.000551434153671016</v>
+      </c>
+      <c r="H61">
+        <v>-0.06222411820385215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1285107032543585</v>
+        <v>0.1390745413027817</v>
       </c>
       <c r="C62">
-        <v>0.0641340924546496</v>
+        <v>0.03911394625160711</v>
       </c>
       <c r="D62">
-        <v>0.02964031712452407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.03299115002882719</v>
+      </c>
+      <c r="E62">
+        <v>-0.06014230883936245</v>
+      </c>
+      <c r="F62">
+        <v>0.01639260916021965</v>
+      </c>
+      <c r="G62">
+        <v>0.004471523291831696</v>
+      </c>
+      <c r="H62">
+        <v>-0.1981771574505474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05115965816365985</v>
+        <v>0.05091976523404616</v>
       </c>
       <c r="C63">
-        <v>0.02471511592590557</v>
+        <v>0.01318403445311303</v>
       </c>
       <c r="D63">
-        <v>0.02165158586023906</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02026055889736161</v>
+      </c>
+      <c r="E63">
+        <v>0.04905891056676689</v>
+      </c>
+      <c r="F63">
+        <v>-0.014694503303479</v>
+      </c>
+      <c r="G63">
+        <v>0.02013814647361701</v>
+      </c>
+      <c r="H63">
+        <v>-0.0557202623597604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.100543809375065</v>
+        <v>0.1066040598166321</v>
       </c>
       <c r="C64">
-        <v>0.0320124537383298</v>
+        <v>0.01447370295149219</v>
       </c>
       <c r="D64">
-        <v>0.0487503150576377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03506485230172639</v>
+      </c>
+      <c r="E64">
+        <v>0.03713860725937991</v>
+      </c>
+      <c r="F64">
+        <v>0.0375993969610204</v>
+      </c>
+      <c r="G64">
+        <v>0.04718101678008704</v>
+      </c>
+      <c r="H64">
+        <v>-0.04431763344613792</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1230542564881996</v>
+        <v>0.1261084733448224</v>
       </c>
       <c r="C65">
-        <v>0.06170422432257114</v>
+        <v>0.03933480129872555</v>
       </c>
       <c r="D65">
-        <v>-0.01569309690304844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.006912750494100013</v>
+      </c>
+      <c r="E65">
+        <v>0.006376719996920881</v>
+      </c>
+      <c r="F65">
+        <v>0.05058351584502126</v>
+      </c>
+      <c r="G65">
+        <v>0.06245133310446516</v>
+      </c>
+      <c r="H65">
+        <v>0.1498645655875732</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1447073895416639</v>
+        <v>0.1547613497438426</v>
       </c>
       <c r="C66">
-        <v>0.07761882405952431</v>
+        <v>0.04784580554420983</v>
       </c>
       <c r="D66">
-        <v>0.1117956224451534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09449749394760167</v>
+      </c>
+      <c r="E66">
+        <v>-0.02941570679860177</v>
+      </c>
+      <c r="F66">
+        <v>0.01627398554560436</v>
+      </c>
+      <c r="G66">
+        <v>0.04469557971770399</v>
+      </c>
+      <c r="H66">
+        <v>-0.117930946505725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07281203971796048</v>
+        <v>0.08449352293344158</v>
       </c>
       <c r="C67">
-        <v>0.015005009360647</v>
+        <v>0.005869723668297447</v>
       </c>
       <c r="D67">
-        <v>0.02232805556599108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03003999104781248</v>
+      </c>
+      <c r="E67">
+        <v>0.02367074344684641</v>
+      </c>
+      <c r="F67">
+        <v>0.01885425796835284</v>
+      </c>
+      <c r="G67">
+        <v>-0.01501514670307473</v>
+      </c>
+      <c r="H67">
+        <v>-0.03380392465201393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05760501376483278</v>
+        <v>0.05672807537922604</v>
       </c>
       <c r="C68">
-        <v>0.05120156311025086</v>
+        <v>0.05975752536064702</v>
       </c>
       <c r="D68">
-        <v>-0.2528968264648072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2688367512486947</v>
+      </c>
+      <c r="E68">
+        <v>0.03430187178415406</v>
+      </c>
+      <c r="F68">
+        <v>0.01319910332059264</v>
+      </c>
+      <c r="G68">
+        <v>-0.01691553035353832</v>
+      </c>
+      <c r="H68">
+        <v>-0.001253998055539788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05128074479822309</v>
+        <v>0.05288264703952471</v>
       </c>
       <c r="C69">
-        <v>0.01787048663103931</v>
+        <v>0.006515774308904368</v>
       </c>
       <c r="D69">
-        <v>0.01951083131214373</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01568750203155814</v>
+      </c>
+      <c r="E69">
+        <v>0.02379625121085345</v>
+      </c>
+      <c r="F69">
+        <v>-0.008859621004678055</v>
+      </c>
+      <c r="G69">
+        <v>-0.02140541562352314</v>
+      </c>
+      <c r="H69">
+        <v>-0.04811644903677211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003687036898718895</v>
+        <v>0.02662128852113739</v>
       </c>
       <c r="C70">
-        <v>-0.005209890417522593</v>
+        <v>0.0002566317223317693</v>
       </c>
       <c r="D70">
-        <v>0.001475064697587138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.00612617763555396</v>
+      </c>
+      <c r="E70">
+        <v>-0.01992299675539</v>
+      </c>
+      <c r="F70">
+        <v>0.01794347819475826</v>
+      </c>
+      <c r="G70">
+        <v>-0.02758187443100506</v>
+      </c>
+      <c r="H70">
+        <v>0.02543531240184197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05793543640350393</v>
+        <v>0.05949113312459706</v>
       </c>
       <c r="C71">
-        <v>0.05085200236583237</v>
+        <v>0.06336921515972219</v>
       </c>
       <c r="D71">
-        <v>-0.2928339773042458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2952264127231023</v>
+      </c>
+      <c r="E71">
+        <v>0.03259807425474201</v>
+      </c>
+      <c r="F71">
+        <v>0.04013140761304057</v>
+      </c>
+      <c r="G71">
+        <v>-0.004146290492567487</v>
+      </c>
+      <c r="H71">
+        <v>-0.008758072253962955</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1422576397094616</v>
+        <v>0.1461038112629612</v>
       </c>
       <c r="C72">
-        <v>0.06605593060790689</v>
+        <v>0.03598142436609377</v>
       </c>
       <c r="D72">
-        <v>-0.005749938274037002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008097803033889805</v>
+      </c>
+      <c r="E72">
+        <v>-0.1104231021686535</v>
+      </c>
+      <c r="F72">
+        <v>-0.1565508673532539</v>
+      </c>
+      <c r="G72">
+        <v>0.1213884141705685</v>
+      </c>
+      <c r="H72">
+        <v>-0.01733579483888913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2747003153238061</v>
+        <v>0.2874345128712444</v>
       </c>
       <c r="C73">
-        <v>0.1097887479178228</v>
+        <v>0.0453237355382768</v>
       </c>
       <c r="D73">
-        <v>0.04953462995963427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09923531992889069</v>
+      </c>
+      <c r="E73">
+        <v>-0.2112880130852658</v>
+      </c>
+      <c r="F73">
+        <v>0.1231522755987091</v>
+      </c>
+      <c r="G73">
+        <v>-0.1307751689214156</v>
+      </c>
+      <c r="H73">
+        <v>0.4950511184203629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07870843773196773</v>
+        <v>0.09116843714152456</v>
       </c>
       <c r="C74">
-        <v>0.07664189817405116</v>
+        <v>0.05993828863964561</v>
       </c>
       <c r="D74">
-        <v>0.01451815151900989</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0297654693140348</v>
+      </c>
+      <c r="E74">
+        <v>-0.005832904799953272</v>
+      </c>
+      <c r="F74">
+        <v>-3.749240388408854e-05</v>
+      </c>
+      <c r="G74">
+        <v>-0.05825702207460249</v>
+      </c>
+      <c r="H74">
+        <v>-0.1144743557058191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09556838780181737</v>
+        <v>0.1007609966689055</v>
       </c>
       <c r="C75">
-        <v>0.05365712271048174</v>
+        <v>0.02907272096077987</v>
       </c>
       <c r="D75">
-        <v>0.007816124302634028</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01388942376058771</v>
+      </c>
+      <c r="E75">
+        <v>0.008986157137913703</v>
+      </c>
+      <c r="F75">
+        <v>0.02588656893206719</v>
+      </c>
+      <c r="G75">
+        <v>-0.02729716947339076</v>
+      </c>
+      <c r="H75">
+        <v>-0.1182649356657487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1289699075984748</v>
+        <v>0.1400233333855496</v>
       </c>
       <c r="C76">
-        <v>0.08293072353137779</v>
+        <v>0.05750900970926923</v>
       </c>
       <c r="D76">
-        <v>0.05234267078327529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04949444715670702</v>
+      </c>
+      <c r="E76">
+        <v>0.02958334119455865</v>
+      </c>
+      <c r="F76">
+        <v>0.04544361990626587</v>
+      </c>
+      <c r="G76">
+        <v>-0.02279663787370655</v>
+      </c>
+      <c r="H76">
+        <v>-0.2036154532223104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1150125780364422</v>
+        <v>0.1083255988064872</v>
       </c>
       <c r="C77">
-        <v>0.01943998164630643</v>
+        <v>-0.00842898521658459</v>
       </c>
       <c r="D77">
-        <v>0.05777709977126914</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02079783713337351</v>
+      </c>
+      <c r="E77">
+        <v>0.0488211690012485</v>
+      </c>
+      <c r="F77">
+        <v>0.1023211496879211</v>
+      </c>
+      <c r="G77">
+        <v>0.8919235618461262</v>
+      </c>
+      <c r="H77">
+        <v>0.05829237996753535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1021012022190581</v>
+        <v>0.1422669362713802</v>
       </c>
       <c r="C78">
-        <v>0.04147712278269763</v>
+        <v>0.03598921262896573</v>
       </c>
       <c r="D78">
-        <v>0.08222644802513253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08130413307001783</v>
+      </c>
+      <c r="E78">
+        <v>0.06265809779810549</v>
+      </c>
+      <c r="F78">
+        <v>0.03967567128914211</v>
+      </c>
+      <c r="G78">
+        <v>0.08496121057174938</v>
+      </c>
+      <c r="H78">
+        <v>0.05084507705348208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1461657335352824</v>
+        <v>0.1516240188801965</v>
       </c>
       <c r="C79">
-        <v>0.07624225910680342</v>
+        <v>0.04465614271767512</v>
       </c>
       <c r="D79">
-        <v>0.02947221937305941</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02734333451258938</v>
+      </c>
+      <c r="E79">
+        <v>-0.01674511589735694</v>
+      </c>
+      <c r="F79">
+        <v>0.02066903220501152</v>
+      </c>
+      <c r="G79">
+        <v>-0.04352376394200024</v>
+      </c>
+      <c r="H79">
+        <v>-0.1754203336955054</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04479075649156301</v>
+        <v>0.04303663690669195</v>
       </c>
       <c r="C80">
-        <v>0.01672540423216463</v>
+        <v>0.007865298155197891</v>
       </c>
       <c r="D80">
-        <v>0.02662999036245221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01783139705356332</v>
+      </c>
+      <c r="E80">
+        <v>-0.0148761975022462</v>
+      </c>
+      <c r="F80">
+        <v>-0.001562982003563837</v>
+      </c>
+      <c r="G80">
+        <v>-0.02944701105113071</v>
+      </c>
+      <c r="H80">
+        <v>-0.0273796180329003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1154312531723001</v>
+        <v>0.1205926999588699</v>
       </c>
       <c r="C81">
-        <v>0.06439019376055537</v>
+        <v>0.03879539273011016</v>
       </c>
       <c r="D81">
-        <v>0.03090357216436721</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02208433331852337</v>
+      </c>
+      <c r="E81">
+        <v>0.02045645596742302</v>
+      </c>
+      <c r="F81">
+        <v>0.01685376786152123</v>
+      </c>
+      <c r="G81">
+        <v>-0.06469268102432106</v>
+      </c>
+      <c r="H81">
+        <v>-0.1482118750863265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1296147060730095</v>
+        <v>0.1316096663153662</v>
       </c>
       <c r="C82">
-        <v>0.07771787533249402</v>
+        <v>0.05072115121205002</v>
       </c>
       <c r="D82">
-        <v>0.01589297609727355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0260693657524978</v>
+      </c>
+      <c r="E82">
+        <v>-0.007441881750977592</v>
+      </c>
+      <c r="F82">
+        <v>0.05723539513876726</v>
+      </c>
+      <c r="G82">
+        <v>-0.05762025756276197</v>
+      </c>
+      <c r="H82">
+        <v>-0.2197683398494051</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07472127700781472</v>
+        <v>0.08625612014418352</v>
       </c>
       <c r="C83">
-        <v>-0.01306745662392118</v>
+        <v>-0.02587195294795704</v>
       </c>
       <c r="D83">
-        <v>0.02465519247529944</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03127336401317638</v>
+      </c>
+      <c r="E83">
+        <v>0.02363570483655074</v>
+      </c>
+      <c r="F83">
+        <v>0.05613963321581716</v>
+      </c>
+      <c r="G83">
+        <v>-0.08362551665180856</v>
+      </c>
+      <c r="H83">
+        <v>0.05990927116268962</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02871380191924082</v>
+        <v>0.03732440659109085</v>
       </c>
       <c r="C84">
-        <v>0.02814342724617208</v>
+        <v>0.02287382201626169</v>
       </c>
       <c r="D84">
-        <v>0.03192043544561568</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03170863918235309</v>
+      </c>
+      <c r="E84">
+        <v>0.03027895960157298</v>
+      </c>
+      <c r="F84">
+        <v>-0.05527649106491467</v>
+      </c>
+      <c r="G84">
+        <v>-0.06681864429797454</v>
+      </c>
+      <c r="H84">
+        <v>0.004180389582978263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1193532878072562</v>
+        <v>0.1216598165409938</v>
       </c>
       <c r="C85">
-        <v>0.05550006832741777</v>
+        <v>0.02914687650666552</v>
       </c>
       <c r="D85">
-        <v>0.01929610694929116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02022030602860088</v>
+      </c>
+      <c r="E85">
+        <v>0.01943953154412808</v>
+      </c>
+      <c r="F85">
+        <v>0.04005659882261036</v>
+      </c>
+      <c r="G85">
+        <v>-0.0344204919162524</v>
+      </c>
+      <c r="H85">
+        <v>-0.1577955808414353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05051593620959281</v>
+        <v>0.05781228096374133</v>
       </c>
       <c r="C86">
-        <v>0.02870565221382765</v>
+        <v>0.01907356123493598</v>
       </c>
       <c r="D86">
-        <v>0.02768575837529891</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02589991703823454</v>
+      </c>
+      <c r="E86">
+        <v>0.07336660692013193</v>
+      </c>
+      <c r="F86">
+        <v>0.02676810662015167</v>
+      </c>
+      <c r="G86">
+        <v>-0.02372616631674418</v>
+      </c>
+      <c r="H86">
+        <v>0.01135790523628326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1179926464728104</v>
+        <v>0.1219648638697656</v>
       </c>
       <c r="C87">
-        <v>0.0714756798916333</v>
+        <v>0.038114132438388</v>
       </c>
       <c r="D87">
-        <v>0.0739553303613848</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07167432784447324</v>
+      </c>
+      <c r="E87">
+        <v>0.02492173805952713</v>
+      </c>
+      <c r="F87">
+        <v>0.000514187634661909</v>
+      </c>
+      <c r="G87">
+        <v>0.132989339169483</v>
+      </c>
+      <c r="H87">
+        <v>0.04406671973028014</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05254313068691815</v>
+        <v>0.06013809431038246</v>
       </c>
       <c r="C88">
-        <v>0.02938883431971629</v>
+        <v>0.01954969731741768</v>
       </c>
       <c r="D88">
-        <v>0.02058240811421765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03322595804110832</v>
+      </c>
+      <c r="E88">
+        <v>0.02168279802765177</v>
+      </c>
+      <c r="F88">
+        <v>0.005031586027048902</v>
+      </c>
+      <c r="G88">
+        <v>0.005336044209632785</v>
+      </c>
+      <c r="H88">
+        <v>-0.05342899309243342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08455403592290914</v>
+        <v>0.09386355657203624</v>
       </c>
       <c r="C89">
-        <v>0.07047915541810686</v>
+        <v>0.08411489701741215</v>
       </c>
       <c r="D89">
-        <v>-0.3258409510520412</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3494888063993086</v>
+      </c>
+      <c r="E89">
+        <v>0.06870793301430861</v>
+      </c>
+      <c r="F89">
+        <v>0.08106093848966432</v>
+      </c>
+      <c r="G89">
+        <v>-0.02709902890055354</v>
+      </c>
+      <c r="H89">
+        <v>-0.007658446587076546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07369185851358562</v>
+        <v>0.07857568453726804</v>
       </c>
       <c r="C90">
-        <v>0.0613248449932751</v>
+        <v>0.0705390107527594</v>
       </c>
       <c r="D90">
-        <v>-0.3200559105779938</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3066557029224855</v>
+      </c>
+      <c r="E90">
+        <v>0.05773884752860386</v>
+      </c>
+      <c r="F90">
+        <v>-0.001354364334326219</v>
+      </c>
+      <c r="G90">
+        <v>-0.003027174390189732</v>
+      </c>
+      <c r="H90">
+        <v>0.0003556947757406589</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08669547121154075</v>
+        <v>0.09024127977555636</v>
       </c>
       <c r="C91">
-        <v>0.05622871850515568</v>
+        <v>0.03398953006432689</v>
       </c>
       <c r="D91">
-        <v>0.0324756070381562</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03162947318416517</v>
+      </c>
+      <c r="E91">
+        <v>0.01369311537913903</v>
+      </c>
+      <c r="F91">
+        <v>0.006402422837479793</v>
+      </c>
+      <c r="G91">
+        <v>-0.05537362110308919</v>
+      </c>
+      <c r="H91">
+        <v>-0.08173134180073521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07453958032242936</v>
+        <v>0.07858506635935927</v>
       </c>
       <c r="C92">
-        <v>0.07450734194864568</v>
+        <v>0.08566501064298955</v>
       </c>
       <c r="D92">
-        <v>-0.3413094363210631</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3455627396001378</v>
+      </c>
+      <c r="E92">
+        <v>0.04330426174015794</v>
+      </c>
+      <c r="F92">
+        <v>0.03972252833552373</v>
+      </c>
+      <c r="G92">
+        <v>0.01579032752816784</v>
+      </c>
+      <c r="H92">
+        <v>-0.01418717189319923</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06470941555552384</v>
+        <v>0.07474686377240587</v>
       </c>
       <c r="C93">
-        <v>0.06596174451685567</v>
+        <v>0.08126229617130254</v>
       </c>
       <c r="D93">
-        <v>-0.3109266248369295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3040249749814915</v>
+      </c>
+      <c r="E93">
+        <v>0.03702389796637971</v>
+      </c>
+      <c r="F93">
+        <v>0.03751812581933895</v>
+      </c>
+      <c r="G93">
+        <v>0.01698568140532801</v>
+      </c>
+      <c r="H93">
+        <v>0.01401734559640709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1322529923826863</v>
+        <v>0.1265226845608617</v>
       </c>
       <c r="C94">
-        <v>0.0546104317498679</v>
+        <v>0.02023836932796907</v>
       </c>
       <c r="D94">
-        <v>0.04735508630516518</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04858005957444484</v>
+      </c>
+      <c r="E94">
+        <v>-0.003677568656100207</v>
+      </c>
+      <c r="F94">
+        <v>0.02298337198340856</v>
+      </c>
+      <c r="G94">
+        <v>-0.06213283456146909</v>
+      </c>
+      <c r="H94">
+        <v>-0.09971112575881552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1194513211491923</v>
+        <v>0.1261907878119141</v>
       </c>
       <c r="C95">
-        <v>0.03076559490867626</v>
+        <v>0.003833328237594886</v>
       </c>
       <c r="D95">
-        <v>0.06256747641982524</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.07157190161206844</v>
+      </c>
+      <c r="E95">
+        <v>0.01539083487002946</v>
+      </c>
+      <c r="F95">
+        <v>0.03710635675507575</v>
+      </c>
+      <c r="G95">
+        <v>0.01019785390168027</v>
+      </c>
+      <c r="H95">
+        <v>0.04499151167451512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2215294019311702</v>
+        <v>0.2090518994151971</v>
       </c>
       <c r="C97">
-        <v>0.0510433725906059</v>
+        <v>-0.0004164084524543025</v>
       </c>
       <c r="D97">
-        <v>-0.1105786022979366</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0871779430897761</v>
+      </c>
+      <c r="E97">
+        <v>-0.3198482812888158</v>
+      </c>
+      <c r="F97">
+        <v>-0.867424111205417</v>
+      </c>
+      <c r="G97">
+        <v>0.06869091569761544</v>
+      </c>
+      <c r="H97">
+        <v>-0.01561488892352062</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2436129728416701</v>
+        <v>0.2754453547796647</v>
       </c>
       <c r="C98">
-        <v>0.07162705478331077</v>
+        <v>0.03287278620326654</v>
       </c>
       <c r="D98">
-        <v>0.04452330601725579</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05557726274574949</v>
+      </c>
+      <c r="E98">
+        <v>-0.1742927774933171</v>
+      </c>
+      <c r="F98">
+        <v>0.09346314113107144</v>
+      </c>
+      <c r="G98">
+        <v>-0.2264173654373758</v>
+      </c>
+      <c r="H98">
+        <v>0.2257442339630743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4476775937412072</v>
+        <v>0.2863286814083466</v>
       </c>
       <c r="C99">
-        <v>-0.87777614820641</v>
+        <v>-0.9326206584728186</v>
       </c>
       <c r="D99">
-        <v>-0.05430322752765844</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1381283769051767</v>
+      </c>
+      <c r="E99">
+        <v>0.07134988365472293</v>
+      </c>
+      <c r="F99">
+        <v>0.04878005921231042</v>
+      </c>
+      <c r="G99">
+        <v>-0.02218878318077663</v>
+      </c>
+      <c r="H99">
+        <v>-0.06348124425555195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04051810655939218</v>
+        <v>0.04872371316749275</v>
       </c>
       <c r="C101">
-        <v>0.03054937154056699</v>
+        <v>0.02608899011417811</v>
       </c>
       <c r="D101">
-        <v>0.00436977539816627</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.005836379758048215</v>
+      </c>
+      <c r="E101">
+        <v>0.05581845969440586</v>
+      </c>
+      <c r="F101">
+        <v>0.002653832989230782</v>
+      </c>
+      <c r="G101">
+        <v>-0.01068011610813381</v>
+      </c>
+      <c r="H101">
+        <v>-0.07644537024892666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
